--- a/Zeitlogging/Fran.xlsx
+++ b/Zeitlogging/Fran.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mouad\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikma\OneDrive\Dokumente\TBZ\M324\Modul-324\Zeitlogging\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{188BC0BB-FD83-485F-B693-577EE87173C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4265CC54-BA00-4BE3-960A-BD4A423C3559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" xr2:uid="{773125F2-71F5-466E-8BCB-E87A59B0E620}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{773125F2-71F5-466E-8BCB-E87A59B0E620}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,10 +35,56 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>Day 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uhrzeit </t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>Welcome</t>
+  </si>
+  <si>
+    <t>Was ist DevOps? Wissen auffrischen Besprechung im Plenum</t>
+  </si>
+  <si>
+    <t>Modul Overview, Aufgaben besprechen &amp; Noten Zusammensetzung</t>
+  </si>
+  <si>
+    <t>Repository erstellen,  Team Mitglieder und Lehrer einladen, Projekt entscheiden und Beschreibung dokumentieren.</t>
+  </si>
+  <si>
+    <t>Pause</t>
+  </si>
+  <si>
+    <t>Technologien entscheiden, Dokumentieren &amp; Ordnerstruktur aufsetzten</t>
+  </si>
+  <si>
+    <t>Stories priorisiert, T-Shirt sizes hinzugefügt &amp; Timelogging</t>
+  </si>
+  <si>
+    <t>T1 durschlesen/informieren Fragen beantworten</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -66,11 +112,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -86,7 +140,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -402,12 +456,95 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABE8525D-A8BF-4245-AF80-4AA9F8D4A1CC}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="20.44140625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="4">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B6" s="4">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B7" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B8" s="4">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B9" s="4">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="B10" s="4">
+        <v>0.4375</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B11" s="4">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B12" s="4">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Zeitlogging/Fran.xlsx
+++ b/Zeitlogging/Fran.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikma\OneDrive\Dokumente\TBZ\M324\Modul-324\Zeitlogging\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4265CC54-BA00-4BE3-960A-BD4A423C3559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC5E274D-407C-44BB-9450-C4D35803158F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{773125F2-71F5-466E-8BCB-E87A59B0E620}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{773125F2-71F5-466E-8BCB-E87A59B0E620}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="day1" sheetId="1" r:id="rId1"/>
+    <sheet name="day2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
   <si>
     <t>Day 1</t>
   </si>
@@ -69,13 +70,67 @@
   </si>
   <si>
     <t>T1 durschlesen/informieren Fragen beantworten</t>
+  </si>
+  <si>
+    <t>Datum</t>
+  </si>
+  <si>
+    <t>Aufgabe / Tätigkeit</t>
+  </si>
+  <si>
+    <t>Von (Startzeit)</t>
+  </si>
+  <si>
+    <t>Bis (Endzeit)</t>
+  </si>
+  <si>
+    <t>Gesamtdauer</t>
+  </si>
+  <si>
+    <t>Projekt/Kommentar</t>
+  </si>
+  <si>
+    <t>29.08.2025</t>
+  </si>
+  <si>
+    <t>Board updaten</t>
+  </si>
+  <si>
+    <t>Projektmanagement</t>
+  </si>
+  <si>
+    <t>T01 Theorie lesen</t>
+  </si>
+  <si>
+    <t>Aufgabe T01</t>
+  </si>
+  <si>
+    <t>T01 besprechen im Team</t>
+  </si>
+  <si>
+    <t>T01 dokumentieren, Commiten</t>
+  </si>
+  <si>
+    <t>T02 Theorie und Besprechung</t>
+  </si>
+  <si>
+    <t>Aufgabe T02</t>
+  </si>
+  <si>
+    <t>Meeting mit Herr Pangri</t>
+  </si>
+  <si>
+    <t>Zeitlogging, Repo clean up, Board updaten</t>
+  </si>
+  <si>
+    <t>Projektmanagement, DevOps</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,16 +146,52 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD966"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF83CCEB"/>
+        <bgColor rgb="FF83CCEB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC0E6F5"/>
+        <bgColor rgb="FFC0E6F5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -108,11 +199,67 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -122,6 +269,33 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -458,8 +632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABE8525D-A8BF-4245-AF80-4AA9F8D4A1CC}">
   <dimension ref="B2:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -547,4 +721,408 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA1FBC56-0049-4F56-AFDF-5C465A1E1215}">
+  <dimension ref="A1:G31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="9">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="D2" s="9">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="E2" s="9">
+        <v>0</v>
+      </c>
+      <c r="F2" s="9">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="13">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="D3" s="13">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="E3" s="13">
+        <v>0</v>
+      </c>
+      <c r="F3" s="9">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="9">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="D4" s="9">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="E4" s="9">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="F4" s="9">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="13">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="D5" s="13">
+        <v>0.4375</v>
+      </c>
+      <c r="E5" s="13">
+        <v>0</v>
+      </c>
+      <c r="F5" s="9">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="9">
+        <v>0.4375</v>
+      </c>
+      <c r="D6" s="9">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0</v>
+      </c>
+      <c r="F6" s="9">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="13">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D7" s="13">
+        <v>0.46527777777777779</v>
+      </c>
+      <c r="E7" s="13">
+        <v>0</v>
+      </c>
+      <c r="F7" s="9">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="9">
+        <v>0.46527777777777779</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="E8" s="15"/>
+      <c r="F8" s="9">
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="11"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="14"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="7"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="10"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="11"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="14"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="7"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="10"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="11"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="14"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="10"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="11"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="14"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="10"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="11"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="14"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="7"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="10"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="11"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="14"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="7"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="10"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="11"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="14"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="10"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="11"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="14"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="10"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="11"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="14"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="7"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="10"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="11"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="14"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="7"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="10"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="11"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="14"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="7"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="10"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="17"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Zeitlogging/Fran.xlsx
+++ b/Zeitlogging/Fran.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikma\OneDrive\Dokumente\TBZ\M324\Modul-324\Zeitlogging\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC5E274D-407C-44BB-9450-C4D35803158F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{348B15BB-E450-4B6E-BF6A-2F682BF58666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{773125F2-71F5-466E-8BCB-E87A59B0E620}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{773125F2-71F5-466E-8BCB-E87A59B0E620}"/>
   </bookViews>
   <sheets>
     <sheet name="day1" sheetId="1" r:id="rId1"/>
     <sheet name="day2" sheetId="2" r:id="rId2"/>
+    <sheet name="day 3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="40">
   <si>
     <t>Day 1</t>
   </si>
@@ -124,6 +125,39 @@
   </si>
   <si>
     <t>Projektmanagement, DevOps</t>
+  </si>
+  <si>
+    <t>05.09.2025</t>
+  </si>
+  <si>
+    <t>Aufträge T01 und T02 in Plenum besprechen</t>
+  </si>
+  <si>
+    <t>Klasse</t>
+  </si>
+  <si>
+    <t>Daily Meeting</t>
+  </si>
+  <si>
+    <t>Meeting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CI Theorie rechechieren und besprechen  </t>
+  </si>
+  <si>
+    <t>Aufgabe T04</t>
+  </si>
+  <si>
+    <t>Review von T03 und T04</t>
+  </si>
+  <si>
+    <t>T03, Reviewmeeting</t>
+  </si>
+  <si>
+    <t>Zeitlogging,  Commiten, Board updaten</t>
+  </si>
+  <si>
+    <t>T04</t>
   </si>
 </sst>
 </file>
@@ -727,7 +761,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA1FBC56-0049-4F56-AFDF-5C465A1E1215}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
@@ -1125,4 +1159,401 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAC77F9F-D1C8-4CA1-AF03-3EF886106FAC}">
+  <dimension ref="A1:G30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="9">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="D2" s="9">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="E2" s="9">
+        <v>0</v>
+      </c>
+      <c r="F2" s="9">
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="13">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="D3" s="13">
+        <v>0.40277777777777779</v>
+      </c>
+      <c r="E3" s="13">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="F3" s="9">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="9">
+        <v>0.40277777777777779</v>
+      </c>
+      <c r="D4" s="9">
+        <v>0.40972222222222221</v>
+      </c>
+      <c r="E4" s="9">
+        <v>0</v>
+      </c>
+      <c r="F4" s="9">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="13">
+        <v>0.40972222222222221</v>
+      </c>
+      <c r="D5" s="13">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="E5" s="13">
+        <v>0</v>
+      </c>
+      <c r="F5" s="9">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="9">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="D6" s="9">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0</v>
+      </c>
+      <c r="F6" s="9">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="13">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="D7" s="13">
+        <v>0.47222222222222221</v>
+      </c>
+      <c r="E7" s="13">
+        <v>0</v>
+      </c>
+      <c r="F7" s="9">
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="9">
+        <v>0.47222222222222221</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="E8" s="9">
+        <v>0</v>
+      </c>
+      <c r="F8" s="9">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="11"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="14"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="7"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="10"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="11"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="14"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="7"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="10"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="11"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="14"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="10"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="11"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="14"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="10"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="11"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="14"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="7"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="10"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="11"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="14"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="7"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="10"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="11"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="14"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="10"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="11"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="14"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="10"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="11"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="14"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="7"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="10"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="11"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="14"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="7"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="10"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="11"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="14"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="7"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>